--- a/3.ViewsAndPerspectives/docs/Data&PayloadsEstimates.xlsx
+++ b/3.ViewsAndPerspectives/docs/Data&PayloadsEstimates.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="108">
   <si>
     <t xml:space="preserve">UTF-16 Encoding</t>
   </si>
@@ -333,6 +333,9 @@
     <t xml:space="preserve">order_guid</t>
   </si>
   <si>
+    <t xml:space="preserve">#Requests</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total (day)</t>
   </si>
   <si>
@@ -340,6 +343,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total (month)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
   </si>
 </sst>
 </file>
@@ -416,7 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
+        <fgColor rgb="FFE8F2A1"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -525,7 +531,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -598,19 +604,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -632,6 +634,14 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -679,8 +689,8 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFE2EFDA"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -717,9 +727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>331920</xdr:colOff>
+      <xdr:colOff>330480</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -732,8 +742,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12736440" y="0"/>
-          <a:ext cx="4896000" cy="4146480"/>
+          <a:off x="12738240" y="0"/>
+          <a:ext cx="4898880" cy="4145040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -755,11 +765,11 @@
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.57"/>
@@ -1726,11 +1736,11 @@
   </sheetPr>
   <dimension ref="B2:G33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.43"/>
@@ -2185,16 +2195,17 @@
   </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19"/>
@@ -2203,7 +2214,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.14"/>
   </cols>
@@ -2288,22 +2299,22 @@
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="17"/>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="18" t="n">
         <v>10000</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="18" t="n">
         <f aca="false">$E$2*G3/1024</f>
         <v>25.4058837890625</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="18" t="n">
         <f aca="false">H3*7</f>
         <v>177.841186523438</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="18" t="n">
         <f aca="false">I3*4</f>
         <v>711.36474609375</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="19" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2319,22 +2330,22 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="17"/>
-      <c r="G4" s="18" t="n">
+      <c r="G4" s="20" t="n">
         <v>100000</v>
       </c>
-      <c r="H4" s="18" t="n">
+      <c r="H4" s="20" t="n">
         <f aca="false">$E$2*G4/1024</f>
         <v>254.058837890625</v>
       </c>
-      <c r="I4" s="18" t="n">
+      <c r="I4" s="20" t="n">
         <f aca="false">H4*7</f>
         <v>1778.41186523438</v>
       </c>
-      <c r="J4" s="18" t="n">
+      <c r="J4" s="20" t="n">
         <f aca="false">I4*4</f>
         <v>7113.6474609375</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2347,26 +2358,26 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="17"/>
-      <c r="G5" s="20" t="n">
+      <c r="G5" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="H5" s="20" t="n">
+      <c r="H5" s="0" t="n">
         <f aca="false">$E$2*G5/1024</f>
         <v>2540.58837890625</v>
       </c>
-      <c r="I5" s="20" t="n">
+      <c r="I5" s="0" t="n">
         <f aca="false">H5*7</f>
         <v>17784.1186523438</v>
       </c>
-      <c r="J5" s="20" t="n">
+      <c r="J5" s="0" t="n">
         <f aca="false">I5*4</f>
         <v>71136.474609375</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
         <v>92</v>
       </c>
@@ -2444,7 +2455,7 @@
       <c r="K9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="22"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
@@ -2459,23 +2470,23 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="17"/>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="18" t="n">
         <f aca="false">$G$3*0.1</f>
         <v>1000</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="18" t="n">
         <f aca="false">$E$9*G10/1024</f>
         <v>4002.48050689697</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="18" t="n">
         <f aca="false">H10*7</f>
         <v>28017.3635482788</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="18" t="n">
         <f aca="false">I10*4</f>
         <v>112069.454193115</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="19" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2608,23 +2619,23 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="17"/>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="18" t="n">
         <f aca="false">G3*0.05</f>
         <v>500</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="18" t="n">
         <f aca="false">$E$14*G15/1024</f>
         <v>2001.25026702881</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="18" t="n">
         <f aca="false">H15*7</f>
         <v>14008.7518692017</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="18" t="n">
         <f aca="false">I15*4</f>
         <v>56035.0074768066</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="19" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2734,19 +2745,19 @@
         <v>0.6171875</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="H20" s="0" t="n">
         <f aca="false">$E$20*G20/1024</f>
-        <v>0.060272216796875</v>
+        <v>0.60272216796875</v>
       </c>
       <c r="I20" s="0" t="n">
         <f aca="false">H20*7</f>
-        <v>0.421905517578125</v>
+        <v>4.21905517578125</v>
       </c>
       <c r="J20" s="0" t="n">
         <f aca="false">I20*4</f>
-        <v>1.6876220703125</v>
+        <v>16.876220703125</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>88</v>
@@ -2764,52 +2775,52 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="17"/>
-      <c r="G21" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H21" s="0" t="n">
+      <c r="G21" s="18" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H21" s="18" t="n">
         <f aca="false">$E$20*G21/1024</f>
-        <v>0.60272216796875</v>
-      </c>
-      <c r="I21" s="0" t="n">
+        <v>6.0272216796875</v>
+      </c>
+      <c r="I21" s="18" t="n">
         <f aca="false">H21*7</f>
-        <v>4.21905517578125</v>
-      </c>
-      <c r="J21" s="0" t="n">
+        <v>42.1905517578125</v>
+      </c>
+      <c r="J21" s="18" t="n">
         <f aca="false">I21*4</f>
-        <v>16.876220703125</v>
-      </c>
-      <c r="K21" s="1" t="s">
+        <v>168.76220703125</v>
+      </c>
+      <c r="K21" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="24" t="n">
+      <c r="B22" s="23" t="n">
         <v>300</v>
       </c>
-      <c r="C22" s="24" t="n">
+      <c r="C22" s="23" t="n">
         <f aca="false">B22*2</f>
         <v>600</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
       <c r="G22" s="0" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="H22" s="0" t="n">
         <f aca="false">$E$20*G22/1024</f>
-        <v>6.0272216796875</v>
+        <v>60.272216796875</v>
       </c>
       <c r="I22" s="0" t="n">
         <f aca="false">H22*7</f>
-        <v>42.1905517578125</v>
+        <v>421.905517578125</v>
       </c>
       <c r="J22" s="0" t="n">
         <f aca="false">I22*4</f>
-        <v>168.76220703125</v>
+        <v>1687.6220703125</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>88</v>
@@ -2817,126 +2828,126 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G23" s="0" t="n">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="0" t="n">
         <f aca="false">$E$20*G23/1024</f>
-        <v>60.272216796875</v>
+        <v>602.72216796875</v>
       </c>
       <c r="I23" s="0" t="n">
         <f aca="false">H23*7</f>
-        <v>421.905517578125</v>
+        <v>4219.05517578125</v>
       </c>
       <c r="J23" s="0" t="n">
         <f aca="false">I23*4</f>
-        <v>1687.6220703125</v>
+        <v>16876.220703125</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="0" t="s">
+        <v>103</v>
+      </c>
       <c r="G25" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="26" t="n">
-        <f aca="false">H2+H9+H14+H20</f>
-        <v>602.973937988281</v>
-      </c>
-      <c r="H26" s="26" t="n">
-        <f aca="false">I2+I9+I14+I20</f>
-        <v>4220.81756591797</v>
-      </c>
-      <c r="I26" s="26" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="25" t="n">
+        <f aca="false">(H2+H9+H14+H20)/1024</f>
+        <v>0.589371472597122</v>
+      </c>
+      <c r="H26" s="25" t="n">
+        <f aca="false">(I2+I9+I14+I20)/1024</f>
+        <v>4.12560030817986</v>
+      </c>
+      <c r="I26" s="25" t="n">
         <f aca="false">(J2+J9+J14+J20)/1024</f>
-        <v>16.4875686168671</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
+        <v>16.5024012327194</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="25"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="18" t="n">
+        <v>10000</v>
+      </c>
       <c r="G27" s="26" t="n">
-        <f aca="false">H3+H10+H15+H21</f>
-        <v>6029.73937988281</v>
+        <f aca="false">(H3+H10+H15+H21)/1024</f>
+        <v>5.89371472597122</v>
       </c>
       <c r="H27" s="26" t="n">
-        <f aca="false">I3+I10+I15+I21</f>
-        <v>42208.1756591797</v>
+        <f aca="false">(I3+I10+I15+I21)/1024</f>
+        <v>41.2560030817986</v>
       </c>
       <c r="I27" s="26" t="n">
         <f aca="false">(J3+J10+J15+J21)/1024</f>
-        <v>164.875686168671</v>
-      </c>
-      <c r="J27" s="19" t="s">
+        <v>165.024012327194</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G28" s="20" t="n">
+        <f aca="false">(H4+H11+H16+H22)/1024</f>
+        <v>58.9371472597122</v>
+      </c>
+      <c r="H28" s="20" t="n">
+        <f aca="false">(I4+I11+I16+I22)/1024</f>
+        <v>412.560030817986</v>
+      </c>
+      <c r="I28" s="20" t="n">
+        <f aca="false">(J4+J11+J16+J22)/1024</f>
+        <v>1650.24012327194</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">(H5+H12+H17+H23)/1024</f>
+        <v>589.371472597122</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <f aca="false">(I5+I12+I17+I23)/1024</f>
+        <v>4125.60030817986</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <f aca="false">(J5+J12+J17+J23)/1024</f>
+        <v>16502.4012327194</v>
+      </c>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="27" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
-      <c r="G28" s="18" t="n">
-        <f aca="false">H4+H11+H16+H22</f>
-        <v>60297.3937988281</v>
-      </c>
-      <c r="H28" s="18" t="n">
-        <f aca="false">I4+I11+I16+I22</f>
-        <v>422081.756591797</v>
-      </c>
-      <c r="I28" s="18" t="n">
-        <f aca="false">(J4+J11+J16+J22)/1024</f>
-        <v>1648.75686168671</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28" s="18"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G29" s="20" t="n">
-        <f aca="false">H5+H12+H17+H23</f>
-        <v>602973.937988281</v>
-      </c>
-      <c r="H29" s="20" t="n">
-        <f aca="false">I5+I12+I17+I23</f>
-        <v>4220817.56591797</v>
-      </c>
-      <c r="I29" s="20" t="n">
-        <f aca="false">(J5+J12+J17+J23)/1024</f>
-        <v>16487.5686168671</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K29" s="21"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/3.ViewsAndPerspectives/docs/Data&PayloadsEstimates.xlsx
+++ b/3.ViewsAndPerspectives/docs/Data&PayloadsEstimates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="DataTypes" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="106">
   <si>
     <t xml:space="preserve">UTF-16 Encoding</t>
   </si>
@@ -237,115 +237,127 @@
     <t xml:space="preserve">preference</t>
   </si>
   <si>
-    <t xml:space="preserve">#records</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sieze</t>
+    <t xml:space="preserve">#records per day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#records per month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size</t>
   </si>
   <si>
     <t xml:space="preserve">unit</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">GiB/M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">onth</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Instance size </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size (KiB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalog </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Order Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total (Bytes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Requests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_guid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meal_guid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kitchen_guid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pos_guid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http_header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review Order Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10% of users writes reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Feedback Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5% error rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fridge_guid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accept Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_guid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
     <t xml:space="preserve">GiB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instance size </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size (KiB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catalog </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make Order Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total (Bytes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Requests (day)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Requests (week)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Requests (month)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_guid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MiB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meal_guid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kitchen_guid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pos_guid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http_header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review Order Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10% of users writes reviews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order Feedback Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5% error rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fridge_guid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accept Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order_guid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#Requests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total (day)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total(week)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total (month)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
   </si>
 </sst>
 </file>
@@ -359,7 +371,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -405,6 +417,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -531,7 +549,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -564,7 +582,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -572,39 +646,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -727,9 +769,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>330480</xdr:colOff>
+      <xdr:colOff>330120</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -742,8 +784,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12738240" y="0"/>
-          <a:ext cx="4898880" cy="4145040"/>
+          <a:off x="13876920" y="0"/>
+          <a:ext cx="4898520" cy="4144680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -765,8 +807,8 @@
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -775,9 +817,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,42 +1720,53 @@
       <c r="E31" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="9" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F32" s="9" t="n">
-        <f aca="false">F3* E32/(1024*1024)</f>
-        <v>13.2026150822639</v>
-      </c>
-      <c r="G32" s="9" t="s">
+      <c r="H31" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="9" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F33" s="9" t="n">
-        <f aca="false">F3* E33/(1024*1024)</f>
-        <v>132.026150822639</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>74</v>
+    <row r="32" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="10" t="n">
+        <v>500</v>
+      </c>
+      <c r="F32" s="11" t="n">
+        <f aca="false">30*E32</f>
+        <v>15000</v>
+      </c>
+      <c r="G32" s="11" t="n">
+        <f aca="false">F3* F32/(1024*1024)</f>
+        <v>1.98039226233959</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="14" t="n">
+        <f aca="false">30*E33</f>
+        <v>30000</v>
+      </c>
+      <c r="G33" s="14" t="n">
+        <f aca="false">F3* F33/(1024*1024)</f>
+        <v>3.96078452467918</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G44" s="10"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G51" s="10" t="e">
+      <c r="G51" s="16" t="e">
         <f aca="false">K19/1024</f>
         <v>#VALUE!</v>
       </c>
@@ -1752,13 +1806,13 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,7 +1826,7 @@
       <c r="D3" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="17" t="n">
         <f aca="false">D3*C3</f>
         <v>2076.591796875</v>
       </c>
@@ -1780,7 +1834,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="6" t="n">
         <f aca="false">DataTypes!$F$21</f>
@@ -1789,7 +1843,7 @@
       <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="17" t="n">
         <f aca="false">D4*C4</f>
         <v>0</v>
       </c>
@@ -1806,7 +1860,7 @@
       <c r="D5" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="17" t="n">
         <f aca="false">D5*C5</f>
         <v>0</v>
       </c>
@@ -1814,17 +1868,17 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="11" t="str">
-        <f aca="false">DataTypes!$G$33</f>
-        <v>GiB</v>
+        <v>80</v>
+      </c>
+      <c r="C6" s="17" t="str">
+        <f aca="false">DataTypes!$H$33</f>
+        <v>GiB/Month</v>
       </c>
       <c r="D6" s="0" t="n">
         <f aca="false">D5*2.1</f>
         <v>630</v>
       </c>
-      <c r="E6" s="11" t="e">
+      <c r="E6" s="17" t="e">
         <f aca="false">D6*C6</f>
         <v>#VALUE!</v>
       </c>
@@ -1834,7 +1888,7 @@
       <c r="B7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="17" t="n">
         <f aca="false">DataTypes!$G$44</f>
         <v>0</v>
       </c>
@@ -1842,7 +1896,7 @@
         <f aca="false">D5*0.4+D6*0.1</f>
         <v>183</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="17" t="n">
         <f aca="false">D7*C7</f>
         <v>0</v>
       </c>
@@ -1852,21 +1906,21 @@
       <c r="B8" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="10" t="e">
+      <c r="C8" s="16" t="e">
         <f aca="false">DataTypes!$G$51</f>
         <v>#VALUE!</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="11" t="e">
+      <c r="E8" s="17" t="e">
         <f aca="false">D8*C8</f>
         <v>#VALUE!</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="11" t="e">
+      <c r="E9" s="17" t="e">
         <f aca="false">SUM(E3:E8)</f>
         <v>#VALUE!</v>
       </c>
@@ -1889,7 +1943,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="6" t="n">
         <f aca="false">DataTypes!$F$21</f>
@@ -1921,11 +1975,11 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="11" t="str">
-        <f aca="false">DataTypes!$G$33</f>
-        <v>GiB</v>
+        <v>80</v>
+      </c>
+      <c r="C14" s="17" t="str">
+        <f aca="false">DataTypes!$H$33</f>
+        <v>GiB/Month</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">D13*2.1</f>
@@ -1940,7 +1994,7 @@
       <c r="B15" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="17" t="n">
         <f aca="false">DataTypes!$G$44</f>
         <v>0</v>
       </c>
@@ -1957,7 +2011,7 @@
       <c r="B16" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="10" t="e">
+      <c r="C16" s="16" t="e">
         <f aca="false">DataTypes!$G$51</f>
         <v>#VALUE!</v>
       </c>
@@ -1987,7 +2041,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="6" t="n">
         <f aca="false">DataTypes!$F$21</f>
@@ -2019,11 +2073,11 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="11" t="str">
-        <f aca="false">DataTypes!$G$33</f>
-        <v>GiB</v>
+        <v>80</v>
+      </c>
+      <c r="C22" s="17" t="str">
+        <f aca="false">DataTypes!$H$33</f>
+        <v>GiB/Month</v>
       </c>
       <c r="D22" s="0" t="n">
         <f aca="false">D21*3.2</f>
@@ -2038,7 +2092,7 @@
       <c r="B23" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C23" s="17" t="n">
         <f aca="false">DataTypes!$G$44</f>
         <v>0</v>
       </c>
@@ -2055,7 +2109,7 @@
       <c r="B24" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="10" t="e">
+      <c r="C24" s="16" t="e">
         <f aca="false">DataTypes!$G$51</f>
         <v>#VALUE!</v>
       </c>
@@ -2091,7 +2145,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" s="6" t="n">
         <f aca="false">DataTypes!$F$21</f>
@@ -2123,11 +2177,11 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="11" t="str">
-        <f aca="false">DataTypes!$G$33</f>
-        <v>GiB</v>
+        <v>80</v>
+      </c>
+      <c r="C30" s="17" t="str">
+        <f aca="false">DataTypes!$H$33</f>
+        <v>GiB/Month</v>
       </c>
       <c r="D30" s="0" t="n">
         <f aca="false">D29*3.2</f>
@@ -2142,7 +2196,7 @@
       <c r="B31" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="11" t="n">
+      <c r="C31" s="17" t="n">
         <f aca="false">DataTypes!$G$44</f>
         <v>0</v>
       </c>
@@ -2159,7 +2213,7 @@
       <c r="B32" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="10" t="e">
+      <c r="C32" s="16" t="e">
         <f aca="false">DataTypes!$G$51</f>
         <v>#VALUE!</v>
       </c>
@@ -2195,8 +2249,8 @@
   </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2221,505 +2275,505 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="I1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="15"/>
+      <c r="J1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" s="9" t="n">
+      <c r="A2" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" s="23" t="n">
         <f aca="false">SUM(C2:C7)</f>
         <v>2664</v>
       </c>
-      <c r="E2" s="17" t="n">
+      <c r="E2" s="24" t="n">
         <f aca="false">D2/1024</f>
         <v>2.6015625</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">$E$2*G2/1024</f>
-        <v>2.54058837890625</v>
+        <v>1.27029418945313</v>
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">H2*7</f>
-        <v>17.7841186523438</v>
+        <v>8.89205932617188</v>
       </c>
       <c r="J2" s="0" t="n">
         <f aca="false">I2*4</f>
+        <v>35.5682373046875</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="G3" s="13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="13" t="n">
+        <f aca="false">$E$2*G3/1024</f>
+        <v>2.54058837890625</v>
+      </c>
+      <c r="I3" s="13" t="n">
+        <f aca="false">H3*7</f>
+        <v>17.7841186523438</v>
+      </c>
+      <c r="J3" s="13" t="n">
+        <f aca="false">I3*4</f>
         <v>71.136474609375</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="K3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="17"/>
-      <c r="G3" s="18" t="n">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="G4" s="26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H4" s="26" t="n">
+        <f aca="false">$E$2*G4/1024</f>
+        <v>12.7029418945313</v>
+      </c>
+      <c r="I4" s="26" t="n">
+        <f aca="false">H4*7</f>
+        <v>88.9205932617188</v>
+      </c>
+      <c r="J4" s="26" t="n">
+        <f aca="false">I4*4</f>
+        <v>355.682373046875</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="23" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="G5" s="0" t="n">
         <v>10000</v>
-      </c>
-      <c r="H3" s="18" t="n">
-        <f aca="false">$E$2*G3/1024</f>
-        <v>25.4058837890625</v>
-      </c>
-      <c r="I3" s="18" t="n">
-        <f aca="false">H3*7</f>
-        <v>177.841186523438</v>
-      </c>
-      <c r="J3" s="18" t="n">
-        <f aca="false">I3*4</f>
-        <v>711.36474609375</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="17"/>
-      <c r="G4" s="20" t="n">
-        <v>100000</v>
-      </c>
-      <c r="H4" s="20" t="n">
-        <f aca="false">$E$2*G4/1024</f>
-        <v>254.058837890625</v>
-      </c>
-      <c r="I4" s="20" t="n">
-        <f aca="false">H4*7</f>
-        <v>1778.41186523438</v>
-      </c>
-      <c r="J4" s="20" t="n">
-        <f aca="false">I4*4</f>
-        <v>7113.6474609375</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="17"/>
-      <c r="G5" s="0" t="n">
-        <v>1000000</v>
       </c>
       <c r="H5" s="0" t="n">
         <f aca="false">$E$2*G5/1024</f>
-        <v>2540.58837890625</v>
+        <v>25.4058837890625</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">H5*7</f>
-        <v>17784.1186523438</v>
+        <v>177.841186523438</v>
       </c>
       <c r="J5" s="0" t="n">
         <f aca="false">I5*4</f>
-        <v>71136.474609375</v>
+        <v>711.36474609375</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="9" t="n">
+      <c r="A6" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="23" t="n">
         <v>500</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="23" t="n">
         <f aca="false">B6*4</f>
         <v>2000</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="9" t="n">
+      <c r="A7" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="23" t="n">
         <v>300</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="23" t="n">
         <f aca="false">B7*2</f>
         <v>600</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="17"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="G8" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="9" t="n">
+      <c r="A9" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="23" t="n">
         <v>500</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="23" t="n">
         <f aca="false">B9*4</f>
         <v>2000</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="23" t="n">
         <f aca="false">SUM(C9:C12)</f>
         <v>4196905</v>
       </c>
-      <c r="E9" s="17" t="n">
+      <c r="E9" s="24" t="n">
         <f aca="false">D9/1024</f>
         <v>4098.5400390625</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">$G$2*0.1</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H9" s="0" t="n">
         <f aca="false">$E$9*G9/1024</f>
-        <v>400.248050689697</v>
+        <v>200.124025344849</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">H9*7</f>
-        <v>2801.73635482788</v>
+        <v>1400.86817741394</v>
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">I9*4</f>
-        <v>11206.9454193115</v>
+        <v>5603.47270965576</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L9" s="21"/>
+        <v>89</v>
+      </c>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="n">
+      <c r="A10" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23" t="n">
         <f aca="false">B10*4*1024*1024</f>
         <v>4194304</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="17"/>
-      <c r="G10" s="18" t="n">
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="G10" s="13" t="n">
         <f aca="false">$G$3*0.1</f>
-        <v>1000</v>
-      </c>
-      <c r="H10" s="18" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" s="13" t="n">
         <f aca="false">$E$9*G10/1024</f>
-        <v>4002.48050689697</v>
-      </c>
-      <c r="I10" s="18" t="n">
+        <v>400.248050689697</v>
+      </c>
+      <c r="I10" s="13" t="n">
         <f aca="false">H10*7</f>
-        <v>28017.3635482788</v>
-      </c>
-      <c r="J10" s="18" t="n">
+        <v>2801.73635482788</v>
+      </c>
+      <c r="J10" s="13" t="n">
         <f aca="false">I10*4</f>
-        <v>112069.454193115</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>88</v>
+        <v>11206.9454193115</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
       <c r="G11" s="0" t="n">
         <f aca="false">$G$4*0.1</f>
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="H11" s="0" t="n">
         <f aca="false">$E$9*G11/1024</f>
-        <v>40024.8050689697</v>
+        <v>2001.24025344849</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">H11*7</f>
-        <v>280173.635482788</v>
+        <v>14008.6817741394</v>
       </c>
       <c r="J11" s="0" t="n">
         <f aca="false">I11*4</f>
-        <v>1120694.54193115</v>
+        <v>56034.7270965576</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="9" t="n">
+      <c r="A12" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="23" t="n">
         <v>300</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="23" t="n">
         <f aca="false">B12*2</f>
         <v>600</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="17"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="G12" s="0" t="n">
         <f aca="false">$G$5*0.1</f>
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="H12" s="0" t="n">
         <f aca="false">$E$9*G12/1024</f>
-        <v>400248.050689697</v>
+        <v>4002.48050689697</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">H12*7</f>
-        <v>2801736.35482788</v>
+        <v>28017.3635482788</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">I12*4</f>
-        <v>11206945.4193115</v>
+        <v>112069.454193115</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="G13" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="9" t="n">
+      <c r="A14" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="23" t="n">
         <v>500</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="23" t="n">
         <f aca="false">B14*4</f>
         <v>2000</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="23" t="n">
         <f aca="false">SUM(C14:C18)</f>
         <v>4196926</v>
       </c>
-      <c r="E14" s="17" t="n">
+      <c r="E14" s="24" t="n">
         <f aca="false">D14/1024</f>
         <v>4098.560546875</v>
       </c>
       <c r="G14" s="0" t="n">
         <f aca="false">$G$2*0.05</f>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">$E$14*G14/1024</f>
-        <v>200.125026702881</v>
+        <v>100.06251335144</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">H14*7</f>
-        <v>1400.87518692017</v>
+        <v>700.437593460083</v>
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">I14*4</f>
-        <v>5603.50074768066</v>
+        <v>2801.75037384033</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="9" t="n">
+      <c r="A15" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="23" t="n">
         <f aca="false">B15*4*1024*1024</f>
         <v>4194304</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="17"/>
-      <c r="G15" s="18" t="n">
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="G15" s="13" t="n">
         <f aca="false">G3*0.05</f>
-        <v>500</v>
-      </c>
-      <c r="H15" s="18" t="n">
+        <v>50</v>
+      </c>
+      <c r="H15" s="13" t="n">
         <f aca="false">$E$14*G15/1024</f>
-        <v>2001.25026702881</v>
-      </c>
-      <c r="I15" s="18" t="n">
+        <v>200.125026702881</v>
+      </c>
+      <c r="I15" s="13" t="n">
         <f aca="false">H15*7</f>
-        <v>14008.7518692017</v>
-      </c>
-      <c r="J15" s="18" t="n">
+        <v>1400.87518692017</v>
+      </c>
+      <c r="J15" s="13" t="n">
         <f aca="false">I15*4</f>
-        <v>56035.0074768066</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>88</v>
+        <v>5603.50074768066</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="17"/>
+      <c r="A16" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="23" t="n">
+        <v>16</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
       <c r="G16" s="0" t="n">
         <f aca="false">G4*0.05</f>
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">$E$14*G16/1024</f>
-        <v>20012.5026702881</v>
+        <v>1000.6251335144</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">H16*7</f>
-        <v>140087.518692017</v>
+        <v>7004.37593460083</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">I16*4</f>
-        <v>560350.074768066</v>
+        <v>28017.5037384033</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9" t="n">
+      <c r="A17" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="17"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
       <c r="G17" s="0" t="n">
         <f aca="false">G5*0.05</f>
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">$E$14*G17/1024</f>
-        <v>200125.026702881</v>
+        <v>2001.25026702881</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">H17*7</f>
-        <v>1400875.18692017</v>
+        <v>14008.7518692017</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">I17*4</f>
-        <v>5603500.74768066</v>
+        <v>56035.0074768066</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="9" t="n">
+      <c r="A18" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="23" t="n">
         <v>300</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="23" t="n">
         <f aca="false">B18*2</f>
         <v>600</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2727,226 +2781,226 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="D20" s="9" t="n">
+      <c r="A20" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="23" t="n">
+        <v>16</v>
+      </c>
+      <c r="D20" s="23" t="n">
         <f aca="false">SUM(C20:C22)</f>
         <v>632</v>
       </c>
-      <c r="E20" s="17" t="n">
+      <c r="E20" s="24" t="n">
         <f aca="false">D20/1024</f>
         <v>0.6171875</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H20" s="0" t="n">
         <f aca="false">$E$20*G20/1024</f>
-        <v>0.60272216796875</v>
+        <v>0.301361083984375</v>
       </c>
       <c r="I20" s="0" t="n">
         <f aca="false">H20*7</f>
-        <v>4.21905517578125</v>
+        <v>2.10952758789062</v>
       </c>
       <c r="J20" s="0" t="n">
         <f aca="false">I20*4</f>
+        <v>8.4381103515625</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="23" t="n">
+        <v>16</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="G21" s="13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="13" t="n">
+        <f aca="false">$E$20*G21/1024</f>
+        <v>0.60272216796875</v>
+      </c>
+      <c r="I21" s="13" t="n">
+        <f aca="false">H21*7</f>
+        <v>4.21905517578125</v>
+      </c>
+      <c r="J21" s="13" t="n">
+        <f aca="false">I21*4</f>
         <v>16.876220703125</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
-      <c r="G21" s="18" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H21" s="18" t="n">
-        <f aca="false">$E$20*G21/1024</f>
-        <v>6.0272216796875</v>
-      </c>
-      <c r="I21" s="18" t="n">
-        <f aca="false">H21*7</f>
-        <v>42.1905517578125</v>
-      </c>
-      <c r="J21" s="18" t="n">
-        <f aca="false">I21*4</f>
-        <v>168.76220703125</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>88</v>
+      <c r="K21" s="25" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="23" t="n">
+      <c r="A22" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="29" t="n">
         <v>300</v>
       </c>
-      <c r="C22" s="23" t="n">
+      <c r="C22" s="29" t="n">
         <f aca="false">B22*2</f>
         <v>600</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
       <c r="G22" s="0" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="H22" s="0" t="n">
         <f aca="false">$E$20*G22/1024</f>
-        <v>60.272216796875</v>
+        <v>3.01361083984375</v>
       </c>
       <c r="I22" s="0" t="n">
         <f aca="false">H22*7</f>
-        <v>421.905517578125</v>
+        <v>21.0952758789062</v>
       </c>
       <c r="J22" s="0" t="n">
         <f aca="false">I22*4</f>
-        <v>1687.6220703125</v>
+        <v>84.381103515625</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G23" s="0" t="n">
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="H23" s="0" t="n">
         <f aca="false">$E$20*G23/1024</f>
-        <v>602.72216796875</v>
+        <v>6.0272216796875</v>
       </c>
       <c r="I23" s="0" t="n">
         <f aca="false">H23*7</f>
-        <v>4219.05517578125</v>
+        <v>42.1905517578125</v>
       </c>
       <c r="J23" s="0" t="n">
         <f aca="false">I23*4</f>
-        <v>16876.220703125</v>
+        <v>168.76220703125</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>106</v>
+      <c r="F25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="G26" s="31" t="n">
+        <f aca="false">(H2+H9+H14+H20)/1024</f>
+        <v>0.294685736298561</v>
+      </c>
+      <c r="H26" s="31" t="n">
+        <f aca="false">(I2+I9+I14+I20)/1024</f>
+        <v>2.06280015408993</v>
+      </c>
+      <c r="I26" s="31" t="n">
+        <f aca="false">(J2+J9+J14+J20)/1024</f>
+        <v>8.25120061635971</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="31"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="13" t="n">
         <v>1000</v>
       </c>
-      <c r="G26" s="25" t="n">
-        <f aca="false">(H2+H9+H14+H20)/1024</f>
+      <c r="G27" s="32" t="n">
+        <f aca="false">(H3+H10+H15+H21)/1024</f>
         <v>0.589371472597122</v>
       </c>
-      <c r="H26" s="25" t="n">
-        <f aca="false">(I2+I9+I14+I20)/1024</f>
+      <c r="H27" s="32" t="n">
+        <f aca="false">(I3+I10+I15+I21)/1024</f>
         <v>4.12560030817986</v>
       </c>
-      <c r="I26" s="25" t="n">
-        <f aca="false">(J2+J9+J14+J20)/1024</f>
+      <c r="I27" s="32" t="n">
+        <f aca="false">(J3+J10+J15+J21)/1024</f>
         <v>16.5024012327194</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="25"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="18" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G27" s="26" t="n">
-        <f aca="false">(H3+H10+H15+H21)/1024</f>
-        <v>5.89371472597122</v>
-      </c>
-      <c r="H27" s="26" t="n">
-        <f aca="false">(I3+I10+I15+I21)/1024</f>
-        <v>41.2560030817986</v>
-      </c>
-      <c r="I27" s="26" t="n">
-        <f aca="false">(J3+J10+J15+J21)/1024</f>
-        <v>165.024012327194</v>
-      </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="31"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G28" s="20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G28" s="26" t="n">
         <f aca="false">(H4+H11+H16+H22)/1024</f>
-        <v>58.9371472597122</v>
-      </c>
-      <c r="H28" s="20" t="n">
+        <v>2.94685736298561</v>
+      </c>
+      <c r="H28" s="26" t="n">
         <f aca="false">(I4+I11+I16+I22)/1024</f>
-        <v>412.560030817986</v>
-      </c>
-      <c r="I28" s="20" t="n">
+        <v>20.6280015408993</v>
+      </c>
+      <c r="I28" s="26" t="n">
         <f aca="false">(J4+J11+J16+J22)/1024</f>
-        <v>1650.24012327194</v>
+        <v>82.5120061635971</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="26"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F29" s="0" t="n">
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="G29" s="0" t="n">
         <f aca="false">(H5+H12+H17+H23)/1024</f>
-        <v>589.371472597122</v>
+        <v>5.89371472597122</v>
       </c>
       <c r="H29" s="0" t="n">
         <f aca="false">(I5+I12+I17+I23)/1024</f>
-        <v>4125.60030817986</v>
+        <v>41.2560030817986</v>
       </c>
       <c r="I29" s="0" t="n">
         <f aca="false">(J5+J12+J17+J23)/1024</f>
-        <v>16502.4012327194</v>
+        <v>165.024012327194</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F30" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>74</v>
+        <v>104</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/3.ViewsAndPerspectives/docs/Data&PayloadsEstimates.xlsx
+++ b/3.ViewsAndPerspectives/docs/Data&PayloadsEstimates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DataTypes" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="106">
   <si>
     <t xml:space="preserve">UTF-16 Encoding</t>
   </si>
@@ -249,25 +249,7 @@
     <t xml:space="preserve">unit</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">GiB/M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">onth</t>
-    </r>
+    <t xml:space="preserve">GiB/Month</t>
   </si>
   <si>
     <t xml:space="preserve">Instance size </t>
@@ -368,10 +350,10 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -417,12 +399,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -549,7 +525,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -590,14 +566,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -610,18 +586,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -650,11 +630,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -674,11 +662,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -769,9 +761,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>330120</xdr:colOff>
+      <xdr:colOff>329760</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -784,8 +776,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13876920" y="0"/>
-          <a:ext cx="4898520" cy="4144680"/>
+          <a:off x="13965120" y="0"/>
+          <a:ext cx="4898160" cy="4144320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -807,8 +799,8 @@
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -819,8 +811,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1731,10 +1723,10 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="10" t="n">
+      <c r="E32" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="F32" s="11" t="n">
+      <c r="F32" s="10" t="n">
         <f aca="false">30*E32</f>
         <v>15000</v>
       </c>
@@ -1754,19 +1746,52 @@
         <f aca="false">30*E33</f>
         <v>30000</v>
       </c>
-      <c r="G33" s="14" t="n">
+      <c r="G33" s="15" t="n">
         <f aca="false">F3* F33/(1024*1024)</f>
         <v>3.96078452467918</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="16" t="s">
         <v>75</v>
       </c>
     </row>
+    <row r="34" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F34" s="10" t="n">
+        <f aca="false">30*E34</f>
+        <v>150000</v>
+      </c>
+      <c r="G34" s="11" t="n">
+        <f aca="false">$F$3* F34/(1024*1024)</f>
+        <v>19.8039226233959</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F35" s="10" t="n">
+        <f aca="false">30*E35</f>
+        <v>300000</v>
+      </c>
+      <c r="G35" s="11" t="n">
+        <f aca="false">$F$3* F35/(1024*1024)</f>
+        <v>39.6078452467918</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G44" s="16"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G51" s="16" t="e">
+      <c r="G51" s="17" t="e">
         <f aca="false">K19/1024</f>
         <v>#VALUE!</v>
       </c>
@@ -1826,7 +1851,7 @@
       <c r="D3" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E3" s="17" t="n">
+      <c r="E3" s="18" t="n">
         <f aca="false">D3*C3</f>
         <v>2076.591796875</v>
       </c>
@@ -1843,7 +1868,7 @@
       <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="17" t="n">
+      <c r="E4" s="18" t="n">
         <f aca="false">D4*C4</f>
         <v>0</v>
       </c>
@@ -1860,7 +1885,7 @@
       <c r="D5" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="E5" s="17" t="n">
+      <c r="E5" s="18" t="n">
         <f aca="false">D5*C5</f>
         <v>0</v>
       </c>
@@ -1870,7 +1895,7 @@
       <c r="B6" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="17" t="str">
+      <c r="C6" s="18" t="str">
         <f aca="false">DataTypes!$H$33</f>
         <v>GiB/Month</v>
       </c>
@@ -1878,7 +1903,7 @@
         <f aca="false">D5*2.1</f>
         <v>630</v>
       </c>
-      <c r="E6" s="17" t="e">
+      <c r="E6" s="18" t="e">
         <f aca="false">D6*C6</f>
         <v>#VALUE!</v>
       </c>
@@ -1888,7 +1913,7 @@
       <c r="B7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="17" t="n">
+      <c r="C7" s="18" t="n">
         <f aca="false">DataTypes!$G$44</f>
         <v>0</v>
       </c>
@@ -1896,7 +1921,7 @@
         <f aca="false">D5*0.4+D6*0.1</f>
         <v>183</v>
       </c>
-      <c r="E7" s="17" t="n">
+      <c r="E7" s="18" t="n">
         <f aca="false">D7*C7</f>
         <v>0</v>
       </c>
@@ -1906,21 +1931,21 @@
       <c r="B8" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="16" t="e">
+      <c r="C8" s="17" t="e">
         <f aca="false">DataTypes!$G$51</f>
         <v>#VALUE!</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="17" t="e">
+      <c r="E8" s="18" t="e">
         <f aca="false">D8*C8</f>
         <v>#VALUE!</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="17" t="e">
+      <c r="E9" s="18" t="e">
         <f aca="false">SUM(E3:E8)</f>
         <v>#VALUE!</v>
       </c>
@@ -1977,7 +2002,7 @@
       <c r="B14" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="17" t="str">
+      <c r="C14" s="18" t="str">
         <f aca="false">DataTypes!$H$33</f>
         <v>GiB/Month</v>
       </c>
@@ -1994,7 +2019,7 @@
       <c r="B15" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="17" t="n">
+      <c r="C15" s="18" t="n">
         <f aca="false">DataTypes!$G$44</f>
         <v>0</v>
       </c>
@@ -2011,7 +2036,7 @@
       <c r="B16" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="16" t="e">
+      <c r="C16" s="17" t="e">
         <f aca="false">DataTypes!$G$51</f>
         <v>#VALUE!</v>
       </c>
@@ -2075,7 +2100,7 @@
       <c r="B22" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="17" t="str">
+      <c r="C22" s="18" t="str">
         <f aca="false">DataTypes!$H$33</f>
         <v>GiB/Month</v>
       </c>
@@ -2092,7 +2117,7 @@
       <c r="B23" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="17" t="n">
+      <c r="C23" s="18" t="n">
         <f aca="false">DataTypes!$G$44</f>
         <v>0</v>
       </c>
@@ -2109,7 +2134,7 @@
       <c r="B24" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="16" t="e">
+      <c r="C24" s="17" t="e">
         <f aca="false">DataTypes!$G$51</f>
         <v>#VALUE!</v>
       </c>
@@ -2179,7 +2204,7 @@
       <c r="B30" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="17" t="str">
+      <c r="C30" s="18" t="str">
         <f aca="false">DataTypes!$H$33</f>
         <v>GiB/Month</v>
       </c>
@@ -2196,7 +2221,7 @@
       <c r="B31" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="17" t="n">
+      <c r="C31" s="18" t="n">
         <f aca="false">DataTypes!$G$44</f>
         <v>0</v>
       </c>
@@ -2213,7 +2238,7 @@
       <c r="B32" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="16" t="e">
+      <c r="C32" s="17" t="e">
         <f aca="false">DataTypes!$G$51</f>
         <v>#VALUE!</v>
       </c>
@@ -2249,8 +2274,8 @@
   </sheetPr>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2261,10 +2286,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.28"/>
@@ -2277,63 +2302,63 @@
       <c r="A1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="21"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" s="23" t="n">
+      <c r="B2" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" s="24" t="n">
         <f aca="false">SUM(C2:C7)</f>
         <v>2664</v>
       </c>
-      <c r="E2" s="24" t="n">
+      <c r="E2" s="25" t="n">
         <f aca="false">D2/1024</f>
         <v>2.6015625</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="18" t="n">
         <f aca="false">$E$2*G2/1024</f>
         <v>1.27029418945313</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="18" t="n">
         <f aca="false">H2*7</f>
         <v>8.89205932617188</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="18" t="n">
         <f aca="false">I2*4</f>
         <v>35.5682373046875</v>
       </c>
@@ -2342,60 +2367,60 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
+      <c r="B3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
       <c r="G3" s="13" t="n">
         <v>1000</v>
       </c>
-      <c r="H3" s="13" t="n">
+      <c r="H3" s="26" t="n">
         <f aca="false">$E$2*G3/1024</f>
         <v>2.54058837890625</v>
       </c>
-      <c r="I3" s="13" t="n">
+      <c r="I3" s="26" t="n">
         <f aca="false">H3*7</f>
         <v>17.7841186523438</v>
       </c>
-      <c r="J3" s="13" t="n">
+      <c r="J3" s="26" t="n">
         <f aca="false">I3*4</f>
         <v>71.136474609375</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="27" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="G4" s="26" t="n">
+      <c r="B4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="G4" s="28" t="n">
         <v>5000</v>
       </c>
-      <c r="H4" s="26" t="n">
+      <c r="H4" s="29" t="n">
         <f aca="false">$E$2*G4/1024</f>
         <v>12.7029418945313</v>
       </c>
-      <c r="I4" s="26" t="n">
+      <c r="I4" s="29" t="n">
         <f aca="false">H4*7</f>
         <v>88.9205932617188</v>
       </c>
-      <c r="J4" s="26" t="n">
+      <c r="J4" s="29" t="n">
         <f aca="false">I4*4</f>
         <v>355.682373046875</v>
       </c>
@@ -2404,26 +2429,26 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
+      <c r="C5" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
       <c r="G5" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="18" t="n">
         <f aca="false">$E$2*G5/1024</f>
         <v>25.4058837890625</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="18" t="n">
         <f aca="false">H5*7</f>
         <v>177.841186523438</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="18" t="n">
         <f aca="false">I5*4</f>
         <v>711.36474609375</v>
       </c>
@@ -2431,35 +2456,37 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="23" t="n">
+      <c r="B6" s="24" t="n">
         <v>500</v>
       </c>
-      <c r="C6" s="23" t="n">
+      <c r="C6" s="24" t="n">
         <f aca="false">B6*4</f>
         <v>2000</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="23" t="n">
+      <c r="B7" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="C7" s="23" t="n">
+      <c r="C7" s="24" t="n">
         <f aca="false">B7*2</f>
         <v>600</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
@@ -2470,23 +2497,24 @@
       <c r="G8" s="0" t="s">
         <v>96</v>
       </c>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="23" t="n">
+      <c r="B9" s="24" t="n">
         <v>500</v>
       </c>
-      <c r="C9" s="23" t="n">
+      <c r="C9" s="24" t="n">
         <f aca="false">B9*4</f>
         <v>2000</v>
       </c>
-      <c r="D9" s="23" t="n">
+      <c r="D9" s="24" t="n">
         <f aca="false">SUM(C9:C12)</f>
         <v>4196905</v>
       </c>
-      <c r="E9" s="24" t="n">
+      <c r="E9" s="25" t="n">
         <f aca="false">D9/1024</f>
         <v>4098.5400390625</v>
       </c>
@@ -2494,81 +2522,81 @@
         <f aca="false">$G$2*0.1</f>
         <v>50</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="18" t="n">
         <f aca="false">$E$9*G9/1024</f>
         <v>200.124025344849</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="18" t="n">
         <f aca="false">H9*7</f>
         <v>1400.86817741394</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="18" t="n">
         <f aca="false">I9*4</f>
         <v>5603.47270965576</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L9" s="27"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="23" t="n">
+      <c r="B10" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="24" t="n">
         <f aca="false">B10*4*1024*1024</f>
         <v>4194304</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
       <c r="G10" s="13" t="n">
         <f aca="false">$G$3*0.1</f>
         <v>100</v>
       </c>
-      <c r="H10" s="13" t="n">
+      <c r="H10" s="26" t="n">
         <f aca="false">$E$9*G10/1024</f>
         <v>400.248050689697</v>
       </c>
-      <c r="I10" s="13" t="n">
+      <c r="I10" s="26" t="n">
         <f aca="false">H10*7</f>
         <v>2801.73635482788</v>
       </c>
-      <c r="J10" s="13" t="n">
+      <c r="J10" s="26" t="n">
         <f aca="false">I10*4</f>
         <v>11206.9454193115</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="27" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
       <c r="G11" s="0" t="n">
         <f aca="false">$G$4*0.1</f>
         <v>500</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="18" t="n">
         <f aca="false">$E$9*G11/1024</f>
         <v>2001.24025344849</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="18" t="n">
         <f aca="false">H11*7</f>
         <v>14008.6817741394</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="18" t="n">
         <f aca="false">I11*4</f>
         <v>56034.7270965576</v>
       </c>
@@ -2577,31 +2605,31 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="23" t="n">
+      <c r="B12" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="C12" s="23" t="n">
+      <c r="C12" s="24" t="n">
         <f aca="false">B12*2</f>
         <v>600</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
       <c r="G12" s="0" t="n">
         <f aca="false">$G$5*0.1</f>
         <v>1000</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="18" t="n">
         <f aca="false">$E$9*G12/1024</f>
         <v>4002.48050689697</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="18" t="n">
         <f aca="false">H12*7</f>
         <v>28017.3635482788</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="18" t="n">
         <f aca="false">I12*4</f>
         <v>112069.454193115</v>
       </c>
@@ -2609,7 +2637,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>99</v>
       </c>
@@ -2620,23 +2648,25 @@
       <c r="G13" s="0" t="s">
         <v>100</v>
       </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="23" t="n">
+      <c r="B14" s="24" t="n">
         <v>500</v>
       </c>
-      <c r="C14" s="23" t="n">
+      <c r="C14" s="24" t="n">
         <f aca="false">B14*4</f>
         <v>2000</v>
       </c>
-      <c r="D14" s="23" t="n">
+      <c r="D14" s="24" t="n">
         <f aca="false">SUM(C14:C18)</f>
         <v>4196926</v>
       </c>
-      <c r="E14" s="24" t="n">
+      <c r="E14" s="25" t="n">
         <f aca="false">D14/1024</f>
         <v>4098.560546875</v>
       </c>
@@ -2644,15 +2674,15 @@
         <f aca="false">$G$2*0.05</f>
         <v>25</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="18" t="n">
         <f aca="false">$E$14*G14/1024</f>
         <v>100.06251335144</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="18" t="n">
         <f aca="false">H14*7</f>
         <v>700.437593460083</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="18" t="n">
         <f aca="false">I14*4</f>
         <v>2801.75037384033</v>
       </c>
@@ -2661,63 +2691,63 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="23" t="n">
+      <c r="B15" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="24" t="n">
         <f aca="false">B15*4*1024*1024</f>
         <v>4194304</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
       <c r="G15" s="13" t="n">
         <f aca="false">G3*0.05</f>
         <v>50</v>
       </c>
-      <c r="H15" s="13" t="n">
+      <c r="H15" s="26" t="n">
         <f aca="false">$E$14*G15/1024</f>
         <v>200.125026702881</v>
       </c>
-      <c r="I15" s="13" t="n">
+      <c r="I15" s="26" t="n">
         <f aca="false">H15*7</f>
         <v>1400.87518692017</v>
       </c>
-      <c r="J15" s="13" t="n">
+      <c r="J15" s="26" t="n">
         <f aca="false">I15*4</f>
         <v>5603.50074768066</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="27" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
+      <c r="B16" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
       <c r="G16" s="0" t="n">
         <f aca="false">G4*0.05</f>
         <v>250</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="18" t="n">
         <f aca="false">$E$14*G16/1024</f>
         <v>1000.6251335144</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="18" t="n">
         <f aca="false">H16*7</f>
         <v>7004.37593460083</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="18" t="n">
         <f aca="false">I16*4</f>
         <v>28017.5037384033</v>
       </c>
@@ -2726,30 +2756,30 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="23" t="n">
+      <c r="B17" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
       <c r="G17" s="0" t="n">
         <f aca="false">G5*0.05</f>
         <v>500</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="18" t="n">
         <f aca="false">$E$14*G17/1024</f>
         <v>2001.25026702881</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="18" t="n">
         <f aca="false">H17*7</f>
         <v>14008.7518692017</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="18" t="n">
         <f aca="false">I17*4</f>
         <v>56035.0074768066</v>
       </c>
@@ -2757,21 +2787,23 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="23" t="n">
+      <c r="B18" s="24" t="n">
         <v>300</v>
       </c>
-      <c r="C18" s="23" t="n">
+      <c r="C18" s="24" t="n">
         <f aca="false">B18*2</f>
         <v>600</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>102</v>
       </c>
@@ -2779,37 +2811,40 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="D20" s="23" t="n">
+      <c r="B20" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="D20" s="24" t="n">
         <f aca="false">SUM(C20:C22)</f>
         <v>632</v>
       </c>
-      <c r="E20" s="24" t="n">
+      <c r="E20" s="25" t="n">
         <f aca="false">D20/1024</f>
         <v>0.6171875</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="18" t="n">
         <f aca="false">$E$20*G20/1024</f>
         <v>0.301361083984375</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="18" t="n">
         <f aca="false">H20*7</f>
         <v>2.10952758789062</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="18" t="n">
         <f aca="false">I20*4</f>
         <v>8.4381103515625</v>
       </c>
@@ -2818,61 +2853,61 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
+      <c r="B21" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
       <c r="G21" s="13" t="n">
         <v>1000</v>
       </c>
-      <c r="H21" s="13" t="n">
+      <c r="H21" s="26" t="n">
         <f aca="false">$E$20*G21/1024</f>
         <v>0.60272216796875</v>
       </c>
-      <c r="I21" s="13" t="n">
+      <c r="I21" s="26" t="n">
         <f aca="false">H21*7</f>
         <v>4.21905517578125</v>
       </c>
-      <c r="J21" s="13" t="n">
+      <c r="J21" s="26" t="n">
         <f aca="false">I21*4</f>
         <v>16.876220703125</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="27" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="29" t="n">
+      <c r="B22" s="32" t="n">
         <v>300</v>
       </c>
-      <c r="C22" s="29" t="n">
+      <c r="C22" s="32" t="n">
         <f aca="false">B22*2</f>
         <v>600</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
       <c r="G22" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="18" t="n">
         <f aca="false">$E$20*G22/1024</f>
         <v>3.01361083984375</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="18" t="n">
         <f aca="false">H22*7</f>
         <v>21.0952758789062</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="18" t="n">
         <f aca="false">I22*4</f>
         <v>84.381103515625</v>
       </c>
@@ -2884,15 +2919,15 @@
       <c r="G23" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="18" t="n">
         <f aca="false">$E$20*G23/1024</f>
         <v>6.0272216796875</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="18" t="n">
         <f aca="false">H23*7</f>
         <v>42.1905517578125</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="18" t="n">
         <f aca="false">I23*4</f>
         <v>168.76220703125</v>
       </c>
@@ -2904,104 +2939,106 @@
       <c r="F25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="21" t="s">
         <v>87</v>
       </c>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="G26" s="31" t="n">
+      <c r="G26" s="18" t="n">
         <f aca="false">(H2+H9+H14+H20)/1024</f>
         <v>0.294685736298561</v>
       </c>
-      <c r="H26" s="31" t="n">
+      <c r="H26" s="18" t="n">
         <f aca="false">(I2+I9+I14+I20)/1024</f>
         <v>2.06280015408993</v>
       </c>
-      <c r="I26" s="31" t="n">
+      <c r="I26" s="18" t="n">
         <f aca="false">(J2+J9+J14+J20)/1024</f>
         <v>8.25120061635971</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="31"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="36"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="13" t="n">
         <v>1000</v>
       </c>
-      <c r="G27" s="32" t="n">
+      <c r="G27" s="26" t="n">
         <f aca="false">(H3+H10+H15+H21)/1024</f>
         <v>0.589371472597122</v>
       </c>
-      <c r="H27" s="32" t="n">
+      <c r="H27" s="26" t="n">
         <f aca="false">(I3+I10+I15+I21)/1024</f>
         <v>4.12560030817986</v>
       </c>
-      <c r="I27" s="32" t="n">
+      <c r="I27" s="26" t="n">
         <f aca="false">(J3+J10+J15+J21)/1024</f>
         <v>16.5024012327194</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="31"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="36"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="G28" s="26" t="n">
+      <c r="G28" s="29" t="n">
         <f aca="false">(H4+H11+H16+H22)/1024</f>
         <v>2.94685736298561</v>
       </c>
-      <c r="H28" s="26" t="n">
+      <c r="H28" s="29" t="n">
         <f aca="false">(I4+I11+I16+I22)/1024</f>
         <v>20.6280015408993</v>
       </c>
-      <c r="I28" s="26" t="n">
+      <c r="I28" s="29" t="n">
         <f aca="false">(J4+J11+J16+J22)/1024</f>
         <v>82.5120061635971</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="26"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F29" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="18" t="n">
         <f aca="false">(H5+H12+H17+H23)/1024</f>
         <v>5.89371472597122</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="18" t="n">
         <f aca="false">(I5+I12+I17+I23)/1024</f>
         <v>41.2560030817986</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="18" t="n">
         <f aca="false">(J5+J12+J17+J23)/1024</f>
         <v>165.024012327194</v>
       </c>
-      <c r="J29" s="1"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F30" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="I30" s="33" t="s">
+      <c r="I30" s="37" t="s">
         <v>105</v>
       </c>
+      <c r="J30" s="34"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
